--- a/editors/datag.xlsx
+++ b/editors/datag.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_CD5865712E4885671528293BA5ED03A2855E0EF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE9AC42-7E9E-4C32-BBFE-98F3A6F61BC7}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_CD5865712E4885671528293BA5ED03A2855E0EF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FE88541-41F5-4E4B-8EBE-F13D3703181E}"/>
   <bookViews>
-    <workbookView xWindow="-7320" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -1591,31 +1591,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,51 +1912,51 @@
   <dimension ref="A1:AP73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F5" sqref="F5"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.06640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.73046875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.06640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.3984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" style="5" customWidth="1"/>
-    <col min="11" max="12" width="8.3984375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.73046875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="12.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.73046875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.265625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="13.59765625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.3984375" style="5" customWidth="1"/>
-    <col min="21" max="21" width="13.86328125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="12.86328125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="13.1328125" style="5" customWidth="1"/>
-    <col min="25" max="29" width="15.265625" style="5" customWidth="1"/>
-    <col min="30" max="30" width="16.3984375" style="5" customWidth="1"/>
-    <col min="31" max="31" width="30.73046875" style="5" customWidth="1"/>
-    <col min="32" max="35" width="29.73046875" style="5" customWidth="1"/>
-    <col min="36" max="36" width="30.73046875" style="5" customWidth="1"/>
-    <col min="37" max="37" width="12.86328125" style="5" customWidth="1"/>
-    <col min="38" max="38" width="12.59765625" style="4" customWidth="1"/>
-    <col min="39" max="39" width="16.265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="5" customWidth="1"/>
+    <col min="11" max="12" width="8.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" style="5" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" style="5" customWidth="1"/>
+    <col min="25" max="29" width="15.21875" style="5" customWidth="1"/>
+    <col min="30" max="30" width="16.44140625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="30.77734375" style="5" customWidth="1"/>
+    <col min="32" max="35" width="29.77734375" style="5" customWidth="1"/>
+    <col min="36" max="36" width="30.77734375" style="5" customWidth="1"/>
+    <col min="37" max="37" width="12.88671875" style="5" customWidth="1"/>
+    <col min="38" max="38" width="12.5546875" style="4" customWidth="1"/>
+    <col min="39" max="39" width="16.21875" style="4" customWidth="1"/>
     <col min="40" max="40" width="9" style="5"/>
-    <col min="41" max="41" width="27.73046875" style="4" customWidth="1"/>
+    <col min="41" max="41" width="27.77734375" style="4" customWidth="1"/>
     <col min="42" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2151,14 +2151,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="1"/>
       <c r="AL3" s="8"/>
       <c r="AM3" s="6"/>
     </row>
-    <row r="4" spans="1:42" ht="46.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:42" ht="46.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>80</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>84</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>97</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>103</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>110</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>114</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:42" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>135</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>139</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>142</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>148</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>153</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>156</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>159</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>165</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>168</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:42" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>172</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>6</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="41.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:42" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>181</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>188</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>195</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>203</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>7</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>219</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:42" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>8</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>232</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>239</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>246</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:42" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>9</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>255</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>10</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:42" ht="50.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>265</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:42" ht="50.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>11</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:42" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>278</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:42" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>285</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:42" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>12</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:42" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>297</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>13</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>312</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="44.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:42" ht="44.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>14</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>328</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:42" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>333</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:42" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>340</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:42" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>345</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:42" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>15</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="68.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:42" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>357</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="58.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:42" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>362</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>366</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>16</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:42" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>378</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>17</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>389</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>18</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>401</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>407</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>412</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>417</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>422</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>426</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:42" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>19</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:42" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:42" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>434</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:42" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:42" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>441</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:42" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:42" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>447</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>453</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:42" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:42" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>20</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:42" ht="42.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:42" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>21</v>
       </c>
@@ -5626,15 +5626,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B55D64EF04374D4FA4E9FE6ABEF93A43" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="26418329725b75c10c3dc83a88123cf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e" xmlns:ns3="11c6a029-b440-4975-9de9-ab29cf645df4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e337ca5debfdabdc1944c5ae725b126" ns2:_="" ns3:_="">
     <xsd:import namespace="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e"/>
@@ -5817,6 +5808,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5829,14 +5829,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431921F9-EAC7-4C4A-A91F-DEF0A1987FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75D71A1-ECC6-412C-AFCD-22991551060A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5855,6 +5847,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431921F9-EAC7-4C4A-A91F-DEF0A1987FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{118653BB-A450-49AA-A333-8156ACB1E3F7}">
   <ds:schemaRefs>

--- a/editors/datag.xlsx
+++ b/editors/datag.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_CD5865712E4885671528293BA5ED03A2855E0EF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FE88541-41F5-4E4B-8EBE-F13D3703181E}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_CD5865712E4885671528293BA5ED03A2855E0EF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DADC320A-6A8F-401C-8BBB-203EB1276FE3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="node" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">node!$A$1:$AN$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">node!$A$1:$AN$70</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1909,13 +1909,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP73"/>
+  <dimension ref="A1:AP72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F5" sqref="F5"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2151,102 +2151,141 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="1"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="6"/>
-    </row>
-    <row r="4" spans="1:42" ht="46.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="46.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AM3" s="10"/>
+      <c r="AP3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>466</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>55</v>
+        <v>82</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="S4" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ4" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="AK4" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AL4" s="8">
         <v>45163</v>
       </c>
-      <c r="AM4" s="10"/>
+      <c r="AM4" s="6"/>
       <c r="AP4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>464</v>
+        <v>86</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>465</v>
+        <v>87</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>88</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>51</v>
+      <c r="AC5" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="AL5" s="8">
         <v>45163</v>
@@ -2258,32 +2297,35 @@
     </row>
     <row r="6" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>467</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>50</v>
@@ -2304,35 +2346,35 @@
     </row>
     <row r="7" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>50</v>
@@ -2353,44 +2395,41 @@
     </row>
     <row r="8" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>98</v>
+        <v>473</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>55</v>
+      <c r="U8" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="AL8" s="8">
         <v>45163</v>
@@ -2402,28 +2441,31 @@
     </row>
     <row r="9" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>105</v>
+        <v>474</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -2448,38 +2490,34 @@
     </row>
     <row r="10" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>472</v>
+        <v>115</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="H10" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>108</v>
@@ -2495,36 +2533,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>118</v>
+        <v>469</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>108</v>
@@ -2540,42 +2578,64 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>121</v>
+    <row r="12" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>469</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>63</v>
+        <v>132</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="V12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W12" s="5">
+        <v>1000</v>
+      </c>
       <c r="AJ12" s="5" t="s">
-        <v>109</v>
+        <v>134</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="AL12" s="8">
         <v>45163</v>
@@ -2586,26 +2646,26 @@
       </c>
     </row>
     <row r="13" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>5</v>
+      <c r="A13" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="1" t="s">
@@ -2617,12 +2677,6 @@
       <c r="N13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="R13" s="5" t="s">
         <v>50</v>
       </c>
@@ -2654,7 +2708,7 @@
     </row>
     <row r="14" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>57</v>
@@ -2666,13 +2720,13 @@
         <v>128</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="1" t="s">
@@ -2715,7 +2769,7 @@
     </row>
     <row r="15" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>57</v>
@@ -2727,13 +2781,13 @@
         <v>128</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="1" t="s">
@@ -2776,7 +2830,7 @@
     </row>
     <row r="16" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>57</v>
@@ -2788,13 +2842,13 @@
         <v>128</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="1" t="s">
@@ -2837,35 +2891,32 @@
     </row>
     <row r="17" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="I17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>50</v>
@@ -2883,10 +2934,7 @@
         <v>1000</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="AL17" s="8">
         <v>45163</v>
@@ -2898,32 +2946,35 @@
     </row>
     <row r="18" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="I18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>50</v>
@@ -2941,7 +2992,10 @@
         <v>1000</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="AL18" s="8">
         <v>45163</v>
@@ -2953,7 +3007,7 @@
     </row>
     <row r="19" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>57</v>
@@ -2965,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="1" t="s">
@@ -3014,35 +3068,35 @@
     </row>
     <row r="20" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="1" t="s">
-        <v>131</v>
+      <c r="I20" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>50</v>
@@ -3075,19 +3129,19 @@
     </row>
     <row r="21" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>162</v>
@@ -3136,35 +3190,35 @@
     </row>
     <row r="22" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
-        <v>164</v>
+      <c r="I22" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>50</v>
@@ -3195,9 +3249,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>57</v>
@@ -3206,47 +3260,50 @@
         <v>136</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="1" t="s">
-        <v>131</v>
+        <v>66</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="W23" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="AK23" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL23" s="8">
         <v>45163</v>
@@ -3256,58 +3313,48 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>172</v>
+    <row r="24" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="S24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W24" s="5">
-        <v>500</v>
+      <c r="AD24" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="AK24" s="5" t="s">
         <v>54</v>
@@ -3315,41 +3362,40 @@
       <c r="AL24" s="8">
         <v>45163</v>
       </c>
-      <c r="AM24" s="6"/>
       <c r="AP24" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>6</v>
+    <row r="25" spans="1:42" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="L25" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>50</v>
@@ -3364,7 +3410,7 @@
         <v>180</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AL25" s="8">
         <v>45163</v>
@@ -3373,36 +3419,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>50</v>
@@ -3417,7 +3463,7 @@
         <v>180</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL26" s="8">
         <v>45163</v>
@@ -3428,49 +3474,40 @@
     </row>
     <row r="27" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AD27" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="AL27" s="8">
         <v>45163</v>
@@ -3481,40 +3518,40 @@
     </row>
     <row r="28" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AD28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AL28" s="8">
         <v>45163</v>
@@ -3523,42 +3560,54 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>203</v>
+    <row r="29" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="K29" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD29" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="AL29" s="8">
         <v>45163</v>
@@ -3568,53 +3617,41 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>7</v>
+      <c r="A30" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="AB30" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="AL30" s="8">
         <v>45163</v>
@@ -3623,42 +3660,51 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>219</v>
+    <row r="31" spans="1:42" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="K31" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="S31" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AB31" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="AL31" s="8">
         <v>45163</v>
@@ -3667,36 +3713,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>8</v>
+    <row r="32" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>230</v>
+        <v>236</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>50</v>
@@ -3720,36 +3766,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L33" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>50</v>
@@ -3773,51 +3819,45 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S34" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="AB34" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AJ34" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="AL34" s="8">
         <v>45163</v>
@@ -3826,45 +3866,51 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>246</v>
+    <row r="35" spans="1:42" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="K35" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="S35" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AB35" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="AL35" s="8">
         <v>45163</v>
@@ -3873,36 +3919,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>9</v>
+    <row r="36" spans="1:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L36" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>50</v>
@@ -3914,63 +3960,57 @@
         <v>55</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AK36" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AL36" s="8">
         <v>45163</v>
       </c>
+      <c r="AN36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO36" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="AP36" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>255</v>
+    <row r="37" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>10</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="K37" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>54</v>
+      <c r="AE37" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="AL37" s="8">
         <v>45163</v>
@@ -3979,45 +4019,57 @@
         <v>55</v>
       </c>
       <c r="AO37" s="4" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AP37" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>10</v>
+    <row r="38" spans="1:42" ht="50.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>259</v>
+        <v>266</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="L38" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="S38" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AE38" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="AL38" s="8">
         <v>45163</v>
@@ -4033,97 +4085,91 @@
       </c>
     </row>
     <row r="39" spans="1:42" ht="50.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>265</v>
+      <c r="A39" s="5">
+        <v>11</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="K39" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ39" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK39" s="5" t="s">
-        <v>60</v>
+      <c r="AF39" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="AL39" s="8">
         <v>45163</v>
       </c>
-      <c r="AN39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO39" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="AP39" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="50.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>11</v>
+    <row r="40" spans="1:42" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>273</v>
+        <v>279</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="L40" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="S40" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AF40" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="AJ40" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK40" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="AL40" s="8">
         <v>45163</v>
@@ -4132,9 +4178,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>57</v>
@@ -4143,25 +4189,28 @@
         <v>279</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>50</v>
@@ -4185,51 +4234,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>285</v>
+    <row r="42" spans="1:42" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>12</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="K42" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>54</v>
+        <v>295</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF42" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="AJ42" s="5" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="AK42" s="5" t="s">
         <v>60</v>
@@ -4241,42 +4281,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>12</v>
+    <row r="43" spans="1:42" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L43" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="R43" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AJ43" s="5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AK43" s="5" t="s">
         <v>60</v>
@@ -4284,93 +4324,90 @@
       <c r="AL43" s="8">
         <v>45163</v>
       </c>
+      <c r="AN43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO43" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="AP43" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>297</v>
+    <row r="44" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>13</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K44" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AJ44" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK44" s="5" t="s">
-        <v>60</v>
+      <c r="AG44" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="AL44" s="8">
         <v>45163</v>
       </c>
-      <c r="AN44" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO44" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="AP44" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>13</v>
+    <row r="45" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="L45" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="R45" s="5" t="s">
         <v>50</v>
@@ -4378,52 +4415,64 @@
       <c r="AG45" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="AJ45" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK45" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AL45" s="8">
         <v>45163</v>
       </c>
+      <c r="AN45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO45" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="AP45" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>312</v>
+    <row r="46" spans="1:42" ht="44.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>14</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="K46" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="L46" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="R46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AG46" s="5" t="s">
+      <c r="Z46" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AJ46" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AK46" s="5" t="s">
         <v>54</v>
@@ -4435,42 +4484,39 @@
         <v>55</v>
       </c>
       <c r="AO46" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AP46" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="44.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>14</v>
+    <row r="47" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="R47" s="5" t="s">
         <v>50</v>
@@ -4481,9 +4527,6 @@
       <c r="AJ47" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="AK47" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="AL47" s="8">
         <v>45163</v>
       </c>
@@ -4491,15 +4534,15 @@
         <v>55</v>
       </c>
       <c r="AO47" s="4" t="s">
-        <v>327</v>
+        <v>24</v>
       </c>
       <c r="AP47" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>57</v>
@@ -4508,22 +4551,25 @@
         <v>329</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>332</v>
+        <v>337</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="R48" s="5" t="s">
         <v>50</v>
@@ -4532,7 +4578,10 @@
         <v>55</v>
       </c>
       <c r="AJ48" s="5" t="s">
-        <v>326</v>
+        <v>339</v>
+      </c>
+      <c r="AK48" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="AL48" s="8">
         <v>45163</v>
@@ -4549,34 +4598,34 @@
     </row>
     <row r="49" spans="1:42" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="K49" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="L49" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>338</v>
+        <v>63</v>
       </c>
       <c r="R49" s="5" t="s">
         <v>50</v>
@@ -4584,28 +4633,16 @@
       <c r="Z49" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AJ49" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK49" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="AL49" s="8">
         <v>45163</v>
       </c>
-      <c r="AN49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO49" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="AP49" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:42" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>57</v>
@@ -4617,16 +4654,16 @@
         <v>307</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>55</v>
@@ -4634,6 +4671,9 @@
       <c r="N50" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="P50" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="R50" s="5" t="s">
         <v>50</v>
       </c>
@@ -4647,74 +4687,83 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>345</v>
+    <row r="51" spans="1:42" ht="66" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>15</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="R51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z51" s="5" t="s">
-        <v>55</v>
+      <c r="S51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ51" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="AL51" s="8">
         <v>45163</v>
       </c>
+      <c r="AN51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO51" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="AP51" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="66" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>15</v>
+    <row r="52" spans="1:42" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>350</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>353</v>
@@ -4744,15 +4793,15 @@
         <v>55</v>
       </c>
       <c r="AO52" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AP52" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>57</v>
@@ -4764,13 +4813,13 @@
         <v>350</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>353</v>
@@ -4800,42 +4849,42 @@
         <v>55</v>
       </c>
       <c r="AO53" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AP53" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="L54" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>50</v>
@@ -4849,64 +4898,49 @@
       <c r="AJ54" s="5" t="s">
         <v>355</v>
       </c>
+      <c r="AK54" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AL54" s="8">
         <v>45163</v>
       </c>
-      <c r="AN54" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO54" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="AP54" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>366</v>
+    <row r="55" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>16</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="K55" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="L55" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="R55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA55" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ55" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="AK55" s="5" t="s">
-        <v>54</v>
+      <c r="AH55" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="AL55" s="8">
         <v>45163</v>
@@ -4915,33 +4949,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>16</v>
+    <row r="56" spans="1:42" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>378</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="L56" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="K56" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="R56" s="5" t="s">
         <v>50</v>
@@ -4956,38 +4990,38 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>378</v>
+    <row r="57" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>17</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="K57" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="R57" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AH57" s="5" t="s">
+      <c r="AI57" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AL57" s="8">
@@ -4997,33 +5031,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>17</v>
+    <row r="58" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>384</v>
+        <v>390</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="L58" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="R58" s="5" t="s">
         <v>50</v>
@@ -5038,43 +5075,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>389</v>
+    <row r="59" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>18</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="K59" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="L59" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="R59" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI59" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="AL59" s="8">
         <v>45163</v>
       </c>
@@ -5082,33 +5113,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>18</v>
+    <row r="60" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="R60" s="5" t="s">
         <v>50</v>
@@ -5122,7 +5153,7 @@
     </row>
     <row r="61" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>57</v>
@@ -5131,36 +5162,31 @@
         <v>402</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL61" s="8">
-        <v>45163</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="AL61" s="8"/>
       <c r="AP61" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>57</v>
@@ -5169,22 +5195,22 @@
         <v>402</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AL62" s="8"/>
       <c r="AP62" s="4" t="s">
@@ -5193,7 +5219,7 @@
     </row>
     <row r="63" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>57</v>
@@ -5202,22 +5228,22 @@
         <v>402</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AL63" s="8"/>
       <c r="AP63" s="4" t="s">
@@ -5226,7 +5252,7 @@
     </row>
     <row r="64" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>57</v>
@@ -5235,22 +5261,22 @@
         <v>402</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="AL64" s="8"/>
       <c r="AP64" s="4" t="s">
@@ -5259,102 +5285,104 @@
     </row>
     <row r="65" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>59</v>
+        <v>428</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="AL65" s="8"/>
       <c r="AP65" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>426</v>
+    <row r="66" spans="1:42" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>19</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP66" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL66" s="8"/>
-      <c r="AP66" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:42" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
-        <v>19</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C67" s="5" t="s">
-        <v>431</v>
+        <v>435</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="L67" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="K67" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="AP67" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:42" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>57</v>
@@ -5363,33 +5391,33 @@
         <v>435</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="AP68" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:42" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>57</v>
@@ -5398,33 +5426,33 @@
         <v>435</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AP69" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:42" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>57</v>
@@ -5433,199 +5461,173 @@
         <v>435</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="AP70" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>453</v>
+    <row r="71" spans="1:42" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>20</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>455</v>
+        <v>459</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="K71" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="L71" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AP71" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:42" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>459</v>
+        <v>470</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>461</v>
+      <c r="I72" s="13" t="s">
+        <v>376</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N72" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP72" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:42" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <v>21</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN71" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I46" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I47" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I32" r:id="rId8" location="BJNR107010012BJNG000100118" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I52" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I53" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I54" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I42" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I39" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I49" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I38" r:id="rId19" location="__bgbl__%2F%2F*%5B%40attr_id%3D%27bgbl117s2097.pdf%27%5D__1692949502060" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I33" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I50" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I59" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I58" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I61" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I72" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I51" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I11" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I13" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I14" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I16" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I17" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I20" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I23" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I44" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I60" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="I62" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I63" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I64" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I66" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I67" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I68" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I69" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="I70" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I71" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="I45" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I73" r:id="rId66" xr:uid="{008ACA7A-1E4E-45E8-B5C5-ABEB6A1CFDDD}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I45" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I46" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I29" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I31" r:id="rId8" location="BJNR107010012BJNG000100118" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I51" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I52" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I53" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I48" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I37" r:id="rId19" location="__bgbl__%2F%2F*%5B%40attr_id%3D%27bgbl117s2097.pdf%27%5D__1692949502060" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I40" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I5" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I7" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I6" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I58" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I60" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I23" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I71" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I50" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I12" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I13" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I14" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I16" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I18" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I22" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I25" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I43" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I61" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I62" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I63" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I66" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I67" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I68" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I69" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I70" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="I44" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I72" r:id="rId66" xr:uid="{008ACA7A-1E4E-45E8-B5C5-ABEB6A1CFDDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
   <ignoredErrors>
-    <ignoredError sqref="A4 A6" numberStoredAsText="1"/>
+    <ignoredError sqref="A3 A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B55D64EF04374D4FA4E9FE6ABEF93A43" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="26418329725b75c10c3dc83a88123cf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e" xmlns:ns3="11c6a029-b440-4975-9de9-ab29cf645df4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e337ca5debfdabdc1944c5ae725b126" ns2:_="" ns3:_="">
     <xsd:import namespace="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e"/>
@@ -5808,15 +5810,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5829,6 +5822,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431921F9-EAC7-4C4A-A91F-DEF0A1987FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75D71A1-ECC6-412C-AFCD-22991551060A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5847,14 +5848,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431921F9-EAC7-4C4A-A91F-DEF0A1987FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{118653BB-A450-49AA-A333-8156ACB1E3F7}">
   <ds:schemaRefs>

--- a/editors/datag.xlsx
+++ b/editors/datag.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_CD5865712E4885671528293BA5ED03A2855E0EF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E259AC-BB89-4AB6-A041-2772E7882366}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="490"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">node!$A$1:$AL$72</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="470">
   <si>
     <t>nid</t>
   </si>
@@ -1494,11 +1493,14 @@
   <si>
     <t>1.2</t>
   </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
@@ -1553,7 +1555,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1580,15 +1582,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1872,11 +1871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1888,9 +1887,9 @@
     <col min="5" max="5" width="39.21875" style="7" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="87" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.21875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="6" customWidth="1"/>
     <col min="11" max="12" width="8.44140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.77734375" style="5" customWidth="1"/>
     <col min="14" max="14" width="15.21875" style="6" customWidth="1"/>
@@ -1937,13 +1936,13 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>459</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -2053,8 +2052,8 @@
       <c r="G2" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="H2" s="9">
-        <v>45338</v>
+      <c r="H2" s="6" t="s">
+        <v>469</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>39</v>
@@ -2086,7 +2085,7 @@
       <c r="AK2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="10">
+      <c r="AL2" s="9">
         <v>45163</v>
       </c>
       <c r="AM2" s="5" t="s">
@@ -2115,8 +2114,8 @@
       <c r="G3" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H3" s="9">
-        <v>45338</v>
+      <c r="H3" s="6" t="s">
+        <v>469</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>463</v>
@@ -2133,7 +2132,7 @@
       <c r="AK3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="10">
+      <c r="AL3" s="9">
         <v>45338</v>
       </c>
       <c r="AM3" s="5" t="s">
@@ -2149,9 +2148,8 @@
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
-      <c r="AL4" s="10"/>
+      <c r="AL4" s="9"/>
       <c r="AM4" s="5" t="s">
         <v>467</v>
       </c>
@@ -2175,10 +2173,10 @@
       <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="1" t="s">
         <v>69</v>
       </c>
@@ -2194,7 +2192,7 @@
       <c r="AJ5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AL5" s="9">
         <v>45163</v>
       </c>
       <c r="AM5" s="5" t="s">
@@ -2244,7 +2242,7 @@
       <c r="AK6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AL6" s="9">
         <v>45163</v>
       </c>
       <c r="AM6" s="5" t="s">
@@ -2288,7 +2286,7 @@
       <c r="AJ7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AL7" s="10">
+      <c r="AL7" s="9">
         <v>45163</v>
       </c>
       <c r="AM7" s="5" t="s">
@@ -2335,7 +2333,7 @@
       <c r="AJ8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AL8" s="10">
+      <c r="AL8" s="9">
         <v>45163</v>
       </c>
       <c r="AM8" s="5" t="s">
@@ -2382,7 +2380,7 @@
       <c r="AJ9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AL9" s="9">
         <v>45163</v>
       </c>
       <c r="AM9" s="5" t="s">
@@ -2426,7 +2424,7 @@
       <c r="AJ10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="AL10" s="9">
         <v>45163</v>
       </c>
       <c r="AM10" s="5" t="s">
@@ -2473,7 +2471,7 @@
       <c r="AJ11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AL11" s="9">
         <v>45163</v>
       </c>
       <c r="AM11" s="5" t="s">
@@ -2517,7 +2515,7 @@
       <c r="AJ12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AL12" s="10">
+      <c r="AL12" s="9">
         <v>45163</v>
       </c>
       <c r="AM12" s="5" t="s">
@@ -2561,7 +2559,7 @@
       <c r="AJ13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AL13" s="10">
+      <c r="AL13" s="9">
         <v>45163</v>
       </c>
       <c r="AM13" s="5" t="s">
@@ -2626,7 +2624,7 @@
       <c r="AK14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AL14" s="9">
         <v>45163</v>
       </c>
       <c r="AM14" s="5" t="s">
@@ -2685,7 +2683,7 @@
       <c r="AK15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AL15" s="9">
         <v>45163</v>
       </c>
       <c r="AM15" s="5" t="s">
@@ -2744,7 +2742,7 @@
       <c r="AK16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL16" s="10">
+      <c r="AL16" s="9">
         <v>45163</v>
       </c>
       <c r="AM16" s="5" t="s">
@@ -2803,7 +2801,7 @@
       <c r="AK17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL17" s="10">
+      <c r="AL17" s="9">
         <v>45163</v>
       </c>
       <c r="AM17" s="5" t="s">
@@ -2862,7 +2860,7 @@
       <c r="AK18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL18" s="10">
+      <c r="AL18" s="9">
         <v>45163</v>
       </c>
       <c r="AM18" s="5" t="s">
@@ -2915,7 +2913,7 @@
       <c r="AJ19" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AL19" s="10">
+      <c r="AL19" s="9">
         <v>45163</v>
       </c>
       <c r="AM19" s="5" t="s">
@@ -2974,7 +2972,7 @@
       <c r="AK20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL20" s="10">
+      <c r="AL20" s="9">
         <v>45163</v>
       </c>
       <c r="AM20" s="5" t="s">
@@ -3033,7 +3031,7 @@
       <c r="AK21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL21" s="10">
+      <c r="AL21" s="9">
         <v>45163</v>
       </c>
       <c r="AM21" s="5" t="s">
@@ -3092,7 +3090,7 @@
       <c r="AK22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL22" s="10">
+      <c r="AL22" s="9">
         <v>45163</v>
       </c>
       <c r="AM22" s="5" t="s">
@@ -3151,7 +3149,7 @@
       <c r="AK23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL23" s="10">
+      <c r="AL23" s="9">
         <v>45163</v>
       </c>
       <c r="AM23" s="5" t="s">
@@ -3210,7 +3208,7 @@
       <c r="AK24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL24" s="10">
+      <c r="AL24" s="9">
         <v>45163</v>
       </c>
       <c r="AM24" s="5" t="s">
@@ -3272,7 +3270,7 @@
       <c r="AK25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL25" s="10">
+      <c r="AL25" s="9">
         <v>45163</v>
       </c>
       <c r="AM25" s="5" t="s">
@@ -3325,7 +3323,7 @@
       <c r="AK26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL26" s="10">
+      <c r="AL26" s="9">
         <v>45163</v>
       </c>
       <c r="AM26" s="5" t="s">
@@ -3378,7 +3376,7 @@
       <c r="AK27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL27" s="10">
+      <c r="AL27" s="9">
         <v>45163</v>
       </c>
       <c r="AM27" s="5" t="s">
@@ -3431,7 +3429,7 @@
       <c r="AK28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL28" s="10">
+      <c r="AL28" s="9">
         <v>45163</v>
       </c>
       <c r="AM28" s="5" t="s">
@@ -3475,7 +3473,7 @@
       <c r="AJ29" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AL29" s="10">
+      <c r="AL29" s="9">
         <v>45163</v>
       </c>
       <c r="AM29" s="5" t="s">
@@ -3519,7 +3517,7 @@
       <c r="AJ30" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AL30" s="10">
+      <c r="AL30" s="9">
         <v>45163</v>
       </c>
       <c r="AM30" s="5" t="s">
@@ -3575,7 +3573,7 @@
       <c r="AK31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL31" s="10">
+      <c r="AL31" s="9">
         <v>45163</v>
       </c>
       <c r="AM31" s="5" t="s">
@@ -3619,7 +3617,7 @@
       <c r="AB32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL32" s="10">
+      <c r="AL32" s="9">
         <v>45163</v>
       </c>
       <c r="AM32" s="5" t="s">
@@ -3672,7 +3670,7 @@
       <c r="AK33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL33" s="10">
+      <c r="AL33" s="9">
         <v>45163</v>
       </c>
       <c r="AM33" s="5" t="s">
@@ -3725,7 +3723,7 @@
       <c r="AK34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL34" s="10">
+      <c r="AL34" s="9">
         <v>45163</v>
       </c>
       <c r="AM34" s="5" t="s">
@@ -3778,7 +3776,7 @@
       <c r="AK35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL35" s="10">
+      <c r="AL35" s="9">
         <v>45163</v>
       </c>
       <c r="AM35" s="5" t="s">
@@ -3825,7 +3823,7 @@
       <c r="AJ36" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="AL36" s="10">
+      <c r="AL36" s="9">
         <v>45163</v>
       </c>
       <c r="AM36" s="5" t="s">
@@ -3878,7 +3876,7 @@
       <c r="AK37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL37" s="10">
+      <c r="AL37" s="9">
         <v>45163</v>
       </c>
       <c r="AM37" s="5" t="s">
@@ -3931,7 +3929,7 @@
       <c r="AK38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL38" s="10">
+      <c r="AL38" s="9">
         <v>45163</v>
       </c>
       <c r="AM38" s="5" t="s">
@@ -3972,7 +3970,7 @@
       <c r="AE39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL39" s="10">
+      <c r="AL39" s="9">
         <v>45163</v>
       </c>
       <c r="AM39" s="5" t="s">
@@ -4025,7 +4023,7 @@
       <c r="AK40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL40" s="10">
+      <c r="AL40" s="9">
         <v>45163</v>
       </c>
       <c r="AM40" s="5" t="s">
@@ -4066,7 +4064,7 @@
       <c r="AF41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL41" s="10">
+      <c r="AL41" s="9">
         <v>45163</v>
       </c>
       <c r="AM41" s="5" t="s">
@@ -4119,7 +4117,7 @@
       <c r="AK42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL42" s="10">
+      <c r="AL42" s="9">
         <v>45163</v>
       </c>
       <c r="AM42" s="5" t="s">
@@ -4175,7 +4173,7 @@
       <c r="AK43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL43" s="10">
+      <c r="AL43" s="9">
         <v>45163</v>
       </c>
       <c r="AM43" s="5" t="s">
@@ -4222,7 +4220,7 @@
       <c r="AK44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL44" s="10">
+      <c r="AL44" s="9">
         <v>45163</v>
       </c>
       <c r="AM44" s="5" t="s">
@@ -4269,7 +4267,7 @@
       <c r="AK45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AL45" s="10">
+      <c r="AL45" s="9">
         <v>45163</v>
       </c>
       <c r="AM45" s="5" t="s">
@@ -4313,7 +4311,7 @@
       <c r="AG46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL46" s="10">
+      <c r="AL46" s="9">
         <v>45163</v>
       </c>
       <c r="AM46" s="5" t="s">
@@ -4363,7 +4361,7 @@
       <c r="AK47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL47" s="10">
+      <c r="AL47" s="9">
         <v>45163</v>
       </c>
       <c r="AM47" s="5" t="s">
@@ -4413,7 +4411,7 @@
       <c r="AK48" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL48" s="10">
+      <c r="AL48" s="9">
         <v>45163</v>
       </c>
       <c r="AM48" s="5" t="s">
@@ -4457,7 +4455,7 @@
       <c r="AJ49" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AL49" s="10">
+      <c r="AL49" s="9">
         <v>45163</v>
       </c>
       <c r="AM49" s="5" t="s">
@@ -4507,7 +4505,7 @@
       <c r="AK50" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL50" s="10">
+      <c r="AL50" s="9">
         <v>45163</v>
       </c>
       <c r="AM50" s="5" t="s">
@@ -4551,7 +4549,7 @@
       <c r="Z51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL51" s="10">
+      <c r="AL51" s="9">
         <v>45163</v>
       </c>
       <c r="AM51" s="5" t="s">
@@ -4598,7 +4596,7 @@
       <c r="Z52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL52" s="10">
+      <c r="AL52" s="9">
         <v>45163</v>
       </c>
       <c r="AM52" s="5" t="s">
@@ -4648,7 +4646,7 @@
       <c r="AJ53" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AL53" s="10">
+      <c r="AL53" s="9">
         <v>45163</v>
       </c>
       <c r="AM53" s="5" t="s">
@@ -4698,7 +4696,7 @@
       <c r="AJ54" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AL54" s="10">
+      <c r="AL54" s="9">
         <v>45163</v>
       </c>
       <c r="AM54" s="5" t="s">
@@ -4748,7 +4746,7 @@
       <c r="AJ55" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AL55" s="10">
+      <c r="AL55" s="9">
         <v>45163</v>
       </c>
       <c r="AM55" s="5" t="s">
@@ -4801,7 +4799,7 @@
       <c r="AK56" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL56" s="10">
+      <c r="AL56" s="9">
         <v>45163</v>
       </c>
       <c r="AM56" s="5" t="s">
@@ -4842,7 +4840,7 @@
       <c r="AH57" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL57" s="10">
+      <c r="AL57" s="9">
         <v>45163</v>
       </c>
       <c r="AM57" s="5" t="s">
@@ -4883,7 +4881,7 @@
       <c r="AH58" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL58" s="10">
+      <c r="AL58" s="9">
         <v>45163</v>
       </c>
       <c r="AM58" s="5" t="s">
@@ -4924,7 +4922,7 @@
       <c r="AI59" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL59" s="10">
+      <c r="AL59" s="9">
         <v>45163</v>
       </c>
       <c r="AM59" s="5" t="s">
@@ -4968,7 +4966,7 @@
       <c r="AI60" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL60" s="10">
+      <c r="AL60" s="9">
         <v>45163</v>
       </c>
       <c r="AM60" s="5" t="s">
@@ -5006,7 +5004,7 @@
       <c r="R61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AL61" s="10">
+      <c r="AL61" s="9">
         <v>45163</v>
       </c>
       <c r="AM61" s="5" t="s">
@@ -5044,7 +5042,7 @@
       <c r="R62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AL62" s="10">
+      <c r="AL62" s="9">
         <v>45163</v>
       </c>
       <c r="AM62" s="5" t="s">
@@ -5079,7 +5077,7 @@
       <c r="N63" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="AL63" s="10"/>
+      <c r="AL63" s="9"/>
       <c r="AM63" s="5" t="s">
         <v>467</v>
       </c>
@@ -5112,7 +5110,7 @@
       <c r="N64" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="AL64" s="10"/>
+      <c r="AL64" s="9"/>
       <c r="AM64" s="5" t="s">
         <v>467</v>
       </c>
@@ -5145,7 +5143,7 @@
       <c r="N65" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="AL65" s="10"/>
+      <c r="AL65" s="9"/>
       <c r="AM65" s="5" t="s">
         <v>467</v>
       </c>
@@ -5178,7 +5176,7 @@
       <c r="N66" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="AL66" s="10"/>
+      <c r="AL66" s="9"/>
       <c r="AM66" s="5" t="s">
         <v>467</v>
       </c>
@@ -5208,7 +5206,7 @@
       <c r="N67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AL67" s="10"/>
+      <c r="AL67" s="9"/>
       <c r="AM67" s="5" t="s">
         <v>467</v>
       </c>
@@ -5444,75 +5442,75 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL72" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AL72"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I47" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I37" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I33" r:id="rId8" location="BJNR107010012BJNG000100118" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I35" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I53" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I54" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I55" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I43" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I40" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I50" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I56" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I38" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I39" r:id="rId19" location="__bgbl__%2F%2F*%5B%40attr_id%3D%27bgbl117s2097.pdf%27%5D__1692949502060" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I36" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I42" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I8" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I13" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I51" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I57" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I59" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I62" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I25" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I73" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I12" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I14" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I16" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I17" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I18" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I20" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I21" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I24" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I30" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I45" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I61" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="I63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I65" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I68" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I70" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="I71" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I72" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="I46" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I74" r:id="rId66" xr:uid="{008ACA7A-1E4E-45E8-B5C5-ABEB6A1CFDDD}"/>
-    <hyperlink ref="I3" r:id="rId67" xr:uid="{F5E17A23-A7A2-4ED2-A420-4080D61491CF}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I6" r:id="rId2"/>
+    <hyperlink ref="I26" r:id="rId3"/>
+    <hyperlink ref="I47" r:id="rId4"/>
+    <hyperlink ref="I48" r:id="rId5"/>
+    <hyperlink ref="I31" r:id="rId6"/>
+    <hyperlink ref="I37" r:id="rId7"/>
+    <hyperlink ref="I33" r:id="rId8" location="BJNR107010012BJNG000100118"/>
+    <hyperlink ref="I35" r:id="rId9"/>
+    <hyperlink ref="I53" r:id="rId10"/>
+    <hyperlink ref="I54" r:id="rId11"/>
+    <hyperlink ref="I55" r:id="rId12"/>
+    <hyperlink ref="I43" r:id="rId13"/>
+    <hyperlink ref="I40" r:id="rId14"/>
+    <hyperlink ref="I50" r:id="rId15"/>
+    <hyperlink ref="I56" r:id="rId16"/>
+    <hyperlink ref="I38" r:id="rId17"/>
+    <hyperlink ref="I28" r:id="rId18"/>
+    <hyperlink ref="I39" r:id="rId19" location="__bgbl__%2F%2F*%5B%40attr_id%3D%27bgbl117s2097.pdf%27%5D__1692949502060"/>
+    <hyperlink ref="I5" r:id="rId20"/>
+    <hyperlink ref="I32" r:id="rId21"/>
+    <hyperlink ref="I34" r:id="rId22"/>
+    <hyperlink ref="I36" r:id="rId23"/>
+    <hyperlink ref="I42" r:id="rId24"/>
+    <hyperlink ref="I41" r:id="rId25"/>
+    <hyperlink ref="I7" r:id="rId26"/>
+    <hyperlink ref="I9" r:id="rId27"/>
+    <hyperlink ref="I8" r:id="rId28"/>
+    <hyperlink ref="I10" r:id="rId29"/>
+    <hyperlink ref="I11" r:id="rId30"/>
+    <hyperlink ref="I13" r:id="rId31"/>
+    <hyperlink ref="I51" r:id="rId32"/>
+    <hyperlink ref="I57" r:id="rId33"/>
+    <hyperlink ref="I60" r:id="rId34"/>
+    <hyperlink ref="I59" r:id="rId35"/>
+    <hyperlink ref="I62" r:id="rId36"/>
+    <hyperlink ref="I25" r:id="rId37"/>
+    <hyperlink ref="I73" r:id="rId38"/>
+    <hyperlink ref="I52" r:id="rId39"/>
+    <hyperlink ref="I12" r:id="rId40"/>
+    <hyperlink ref="I14" r:id="rId41"/>
+    <hyperlink ref="I15" r:id="rId42"/>
+    <hyperlink ref="I16" r:id="rId43"/>
+    <hyperlink ref="I17" r:id="rId44"/>
+    <hyperlink ref="I18" r:id="rId45"/>
+    <hyperlink ref="I20" r:id="rId46"/>
+    <hyperlink ref="I21" r:id="rId47"/>
+    <hyperlink ref="I24" r:id="rId48"/>
+    <hyperlink ref="I27" r:id="rId49"/>
+    <hyperlink ref="I29" r:id="rId50"/>
+    <hyperlink ref="I30" r:id="rId51"/>
+    <hyperlink ref="I45" r:id="rId52"/>
+    <hyperlink ref="I61" r:id="rId53"/>
+    <hyperlink ref="I58" r:id="rId54"/>
+    <hyperlink ref="I63" r:id="rId55"/>
+    <hyperlink ref="I64" r:id="rId56"/>
+    <hyperlink ref="I65" r:id="rId57"/>
+    <hyperlink ref="I66" r:id="rId58"/>
+    <hyperlink ref="I67" r:id="rId59"/>
+    <hyperlink ref="I68" r:id="rId60"/>
+    <hyperlink ref="I69" r:id="rId61"/>
+    <hyperlink ref="I70" r:id="rId62"/>
+    <hyperlink ref="I71" r:id="rId63"/>
+    <hyperlink ref="I72" r:id="rId64"/>
+    <hyperlink ref="I46" r:id="rId65"/>
+    <hyperlink ref="I74" r:id="rId66"/>
+    <hyperlink ref="I3" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
@@ -5706,15 +5704,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="11c6a029-b440-4975-9de9-ab29cf645df4" xsi:nil="true"/>
@@ -5723,6 +5712,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5745,14 +5743,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431921F9-EAC7-4C4A-A91F-DEF0A1987FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{118653BB-A450-49AA-A333-8156ACB1E3F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5761,4 +5751,12 @@
     <ds:schemaRef ds:uri="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431921F9-EAC7-4C4A-A91F-DEF0A1987FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>